--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_3_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_3_sine_0.1_.xlsx
@@ -577,49 +577,49 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.824352277197022e-11</v>
+        <v>9.670175771248068e-11</v>
       </c>
       <c r="H2" t="n">
-        <v>1.941444984574694e-09</v>
+        <v>2.536439546556871e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>0.716664895452549</v>
+        <v>0.1614735695256511</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.06107305556394</v>
+        <v>40.83887586882928</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.984221679126804, 55.137924432001086]</t>
+          <t>[28.019713082071235, 53.65803865558732]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.372702448549262e-11</v>
+        <v>3.596294817498347e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.474540489709852e-10</v>
+        <v>3.596294817498347e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.566079220708425</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2264475824825007, 1.9057108589343494]</t>
+          <t>[1.0629212381515014, 1.7925003128590404]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.768585278227874e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>3.537170556455749e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>63.90921995195048</v>
+        <v>55.71614755995852</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.793725870885126, 72.02471403301583]</t>
+          <t>[48.018004424007415, 63.41429069590963]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.51651651651652</v>
+        <v>17.001001001001</v>
       </c>
       <c r="X2" t="n">
-        <v>15.32732732732733</v>
+        <v>15.72372372372372</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.70570570570571</v>
+        <v>18.27827827827828</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +654,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.10000000000033</v>
+        <v>22.55000000000009</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.222334180539519e-07</v>
+        <v>1.887379141862766e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>3.20065549263624e-07</v>
+        <v>2.34000852882533e-13</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>33.12605077912984</v>
+        <v>48.38812374603071</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[20.274951036410442, 45.97715052184924]</t>
+          <t>[34.25617255717956, 62.52007493488187]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.095839106568519e-06</v>
+        <v>3.216791277793618e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>1.095839106568519e-06</v>
+        <v>6.433582555587236e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.993789996213697</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.4340532309510055, -2.5535267614763884]</t>
+          <t>[0.8868159442565782, 1.515763422452733]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4.89697171701664e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.89697171701664e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>54.771674215682</v>
+        <v>66.58854896626283</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.04003460968043, 62.50331382168356]</t>
+          <t>[58.86141453182529, 74.31568340070038]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.48308308308324</v>
+        <v>18.23863863863871</v>
       </c>
       <c r="X3" t="n">
-        <v>9.794394394394528</v>
+        <v>17.11001001001008</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.17177177177195</v>
+        <v>19.36726726726734</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_3_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_3_sine_0.1_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>9.670175771248068e-11</v>
+        <v>5.766365163140108e-11</v>
       </c>
       <c r="H2" t="n">
-        <v>2.536439546556871e-10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1614735695256511</v>
-      </c>
+        <v>7.792766432146436e-10</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.83887586882928</v>
+        <v>41.20072510975176</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[28.019713082071235, 53.65803865558732]</t>
+          <t>[28.182438289700166, 54.21901192980335]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.596294817498347e-09</v>
+        <v>4.427330946299435e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.596294817498347e-09</v>
+        <v>8.85466189259887e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>1.427710775505271</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 1.7925003128590404]</t>
+          <t>[0.9874475407679624, 1.6918687163476571]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.768585278227874e-12</v>
+        <v>5.847766715305625e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>3.537170556455749e-12</v>
+        <v>5.847766715305625e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>55.71614755995852</v>
+        <v>62.14400194201238</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.018004424007415, 63.41429069590963]</t>
+          <t>[54.58930046220152, 69.69870342182324]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.001001001001</v>
+        <v>17.91513513513523</v>
       </c>
       <c r="X2" t="n">
-        <v>15.72372372372372</v>
+        <v>16.63873873873882</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.27827827827828</v>
+        <v>19.19153153153164</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.55000000000009</v>
+        <v>23.13000000000018</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>3.308063167839492e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>2.34000852882533e-13</v>
+        <v>8.144517840993827e-08</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.38812374603071</v>
+        <v>36.63758925344408</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.25617255717956, 62.52007493488187]</t>
+          <t>[21.30365421712986, 51.97152428975829]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.216791277793618e-10</v>
+        <v>5.541265938546758e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>6.433582555587236e-10</v>
+        <v>5.541265938546758e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.201289683354656</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.515763422452733]</t>
+          <t>[1.490605523324886, 2.371131992799503]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.89697171701664e-12</v>
+        <v>9.325873406851315e-15</v>
       </c>
       <c r="R3" t="n">
-        <v>4.89697171701664e-12</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>66.58854896626283</v>
+        <v>58.7378057023233</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.86141453182529, 74.31568340070038]</t>
+          <t>[50.420899997892334, 67.05471140675427]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.23863863863871</v>
+        <v>16.02198198198211</v>
       </c>
       <c r="X3" t="n">
-        <v>17.11001001001008</v>
+        <v>14.40126126126138</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.36726726726734</v>
+        <v>17.64270270270284</v>
       </c>
     </row>
   </sheetData>
